--- a/Bills/Sagar_Thumma_Jobuss.xlsx
+++ b/Bills/Sagar_Thumma_Jobuss.xlsx
@@ -1421,7 +1421,7 @@
       </c>
       <c r="G12" s="83" t="inlineStr">
         <is>
-          <t>27-02-2026</t>
+          <t>28-02-2026</t>
         </is>
       </c>
       <c r="H12" s="84" t="n"/>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="G13" s="86" t="inlineStr">
         <is>
-          <t>02-03-2026</t>
+          <t>03-03-2026</t>
         </is>
       </c>
       <c r="H13" s="87" t="n"/>

--- a/Bills/Sagar_Thumma_Jobuss.xlsx
+++ b/Bills/Sagar_Thumma_Jobuss.xlsx
@@ -1877,7 +1877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1909,7 +1909,6 @@
     <col width="18" customWidth="1" min="22" max="22"/>
     <col width="18" customWidth="1" min="23" max="23"/>
     <col width="18" customWidth="1" min="24" max="24"/>
-    <col width="18" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -1920,122 +1919,117 @@
       </c>
       <c r="B1" s="109" t="inlineStr">
         <is>
-          <t>Working At</t>
+          <t>Employee Code</t>
         </is>
       </c>
       <c r="C1" s="109" t="inlineStr">
         <is>
-          <t>Employee Code</t>
+          <t>Employee Name</t>
         </is>
       </c>
       <c r="D1" s="109" t="inlineStr">
         <is>
-          <t>Employee Name</t>
+          <t>Billing</t>
         </is>
       </c>
       <c r="E1" s="109" t="inlineStr">
         <is>
-          <t>Billing</t>
+          <t>No of days</t>
         </is>
       </c>
       <c r="F1" s="109" t="inlineStr">
         <is>
-          <t>No of days</t>
+          <t>Eligible Days</t>
         </is>
       </c>
       <c r="G1" s="109" t="inlineStr">
         <is>
-          <t>Eligible Days</t>
+          <t>No of Saturdays</t>
         </is>
       </c>
       <c r="H1" s="109" t="inlineStr">
         <is>
-          <t>No of Saturdays</t>
+          <t>No of Sundays</t>
         </is>
       </c>
       <c r="I1" s="109" t="inlineStr">
         <is>
-          <t>No of Sundays</t>
+          <t>No of Holidays</t>
         </is>
       </c>
       <c r="J1" s="109" t="inlineStr">
         <is>
-          <t>No of Holidays</t>
+          <t>Total Present</t>
         </is>
       </c>
       <c r="K1" s="109" t="inlineStr">
         <is>
-          <t>Total Present</t>
+          <t>Total Working Days</t>
         </is>
       </c>
       <c r="L1" s="109" t="inlineStr">
         <is>
-          <t>Total Working Days</t>
+          <t>Absents this Month</t>
         </is>
       </c>
       <c r="M1" s="109" t="inlineStr">
         <is>
-          <t>Absents this Month</t>
+          <t>Adjustment of Days</t>
         </is>
       </c>
       <c r="N1" s="109" t="inlineStr">
         <is>
-          <t>Adjustment of Days</t>
+          <t>Total Payable Days</t>
         </is>
       </c>
       <c r="O1" s="109" t="inlineStr">
         <is>
-          <t>Total Payable Days</t>
+          <t>Total Payable Billing</t>
         </is>
       </c>
       <c r="P1" s="109" t="inlineStr">
         <is>
-          <t>Total Payable Billing</t>
+          <t>Charges</t>
         </is>
       </c>
       <c r="Q1" s="109" t="inlineStr">
         <is>
-          <t>Charges</t>
+          <t>Out of Pocket Exp</t>
         </is>
       </c>
       <c r="R1" s="109" t="inlineStr">
         <is>
-          <t>Out of Pocket Exp</t>
+          <t>Arrears</t>
         </is>
       </c>
       <c r="S1" s="109" t="inlineStr">
         <is>
-          <t>Arrears</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="T1" s="109" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Grand Total</t>
         </is>
       </c>
       <c r="U1" s="109" t="inlineStr">
         <is>
+          <t>Remark</t>
+        </is>
+      </c>
+      <c r="V1" s="109" t="inlineStr">
+        <is>
           <t>CGST @9%</t>
         </is>
       </c>
-      <c r="V1" s="109" t="inlineStr">
+      <c r="W1" s="109" t="inlineStr">
         <is>
           <t>SGST @9%</t>
         </is>
       </c>
-      <c r="W1" s="109" t="inlineStr">
+      <c r="X1" s="109" t="inlineStr">
         <is>
           <t>IGST @18%</t>
-        </is>
-      </c>
-      <c r="X1" s="109" t="inlineStr">
-        <is>
-          <t>Grand Total</t>
-        </is>
-      </c>
-      <c r="Y1" s="109" t="inlineStr">
-        <is>
-          <t>Remark</t>
         </is>
       </c>
     </row>
@@ -2047,80 +2041,75 @@
       </c>
       <c r="B2" s="110" t="inlineStr">
         <is>
-          <t>Titan Company Ltd</t>
+          <t>AB10061</t>
         </is>
       </c>
       <c r="C2" s="110" t="inlineStr">
         <is>
-          <t>AB10061</t>
-        </is>
-      </c>
-      <c r="D2" s="110" t="inlineStr">
-        <is>
           <t>VISMAYA SURESH NAIR</t>
         </is>
       </c>
+      <c r="D2" s="110" t="n">
+        <v>22000</v>
+      </c>
       <c r="E2" s="110" t="n">
-        <v>22000</v>
+        <v>28</v>
       </c>
       <c r="F2" s="110" t="n">
         <v>28</v>
       </c>
       <c r="G2" s="110" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H2" s="110" t="n">
         <v>4</v>
       </c>
       <c r="I2" s="110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2" s="110" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K2" s="110" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="L2" s="110" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="M2" s="110" t="n">
         <v>2</v>
       </c>
       <c r="N2" s="110" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="O2" s="110" t="n">
-        <v>30</v>
+        <v>23571.43</v>
       </c>
       <c r="P2" s="110" t="n">
-        <v>23571.43</v>
+        <v>1500</v>
       </c>
       <c r="Q2" s="110" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="R2" s="110" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="110" t="n">
-        <v>0</v>
+        <v>25071.43</v>
       </c>
       <c r="T2" s="110" t="n">
-        <v>25071.43</v>
+        <v>29584.29</v>
       </c>
       <c r="U2" s="110" t="n">
-        <v>2256.43</v>
+        <v/>
       </c>
       <c r="V2" s="110" t="n">
         <v>2256.43</v>
       </c>
       <c r="W2" s="110" t="n">
-        <v>0</v>
+        <v>2256.43</v>
       </c>
       <c r="X2" s="110" t="n">
-        <v>29584.29</v>
-      </c>
-      <c r="Y2" s="110" t="n">
         <v/>
       </c>
     </row>
@@ -2132,80 +2121,75 @@
       </c>
       <c r="B3" s="110" t="inlineStr">
         <is>
-          <t>Titan Company Ltd</t>
+          <t>AB10063</t>
         </is>
       </c>
       <c r="C3" s="110" t="inlineStr">
         <is>
-          <t>AB10063</t>
-        </is>
-      </c>
-      <c r="D3" s="110" t="inlineStr">
-        <is>
           <t>RENUKA SHRIVASTAV</t>
         </is>
       </c>
+      <c r="D3" s="110" t="n">
+        <v>22000</v>
+      </c>
       <c r="E3" s="110" t="n">
-        <v>22000</v>
+        <v>28</v>
       </c>
       <c r="F3" s="110" t="n">
         <v>28</v>
       </c>
       <c r="G3" s="110" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H3" s="110" t="n">
         <v>4</v>
       </c>
       <c r="I3" s="110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="110" t="n">
+        <v>16</v>
+      </c>
+      <c r="K3" s="110" t="n">
+        <v>27</v>
+      </c>
+      <c r="L3" s="110" t="n">
         <v>3</v>
       </c>
-      <c r="K3" s="110" t="n">
-        <v>16</v>
-      </c>
-      <c r="L3" s="110" t="n">
-        <v>27</v>
-      </c>
       <c r="M3" s="110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3" s="110" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="O3" s="110" t="n">
-        <v>29</v>
+        <v>22785.71</v>
       </c>
       <c r="P3" s="110" t="n">
-        <v>22785.71</v>
+        <v>1500</v>
       </c>
       <c r="Q3" s="110" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="R3" s="110" t="n">
         <v>0</v>
       </c>
       <c r="S3" s="110" t="n">
-        <v>0</v>
+        <v>24285.71</v>
       </c>
       <c r="T3" s="110" t="n">
-        <v>24285.71</v>
+        <v>28657.14</v>
       </c>
       <c r="U3" s="110" t="n">
-        <v>2185.71</v>
+        <v/>
       </c>
       <c r="V3" s="110" t="n">
         <v>2185.71</v>
       </c>
       <c r="W3" s="110" t="n">
-        <v>0</v>
+        <v>2185.71</v>
       </c>
       <c r="X3" s="110" t="n">
-        <v>28657.14</v>
-      </c>
-      <c r="Y3" s="110" t="n">
         <v/>
       </c>
     </row>
@@ -2217,80 +2201,75 @@
       </c>
       <c r="B4" s="110" t="inlineStr">
         <is>
-          <t>Titan Company Ltd</t>
+          <t>AB10080</t>
         </is>
       </c>
       <c r="C4" s="110" t="inlineStr">
         <is>
-          <t>AB10080</t>
-        </is>
-      </c>
-      <c r="D4" s="110" t="inlineStr">
-        <is>
           <t>NIKITA TAMBE</t>
         </is>
       </c>
+      <c r="D4" s="110" t="n">
+        <v>26200</v>
+      </c>
       <c r="E4" s="110" t="n">
-        <v>26200</v>
+        <v>28</v>
       </c>
       <c r="F4" s="110" t="n">
         <v>28</v>
       </c>
       <c r="G4" s="110" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H4" s="110" t="n">
         <v>4</v>
       </c>
       <c r="I4" s="110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="110" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="K4" s="110" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L4" s="110" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M4" s="110" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="110" t="n">
+        <v>30</v>
+      </c>
+      <c r="O4" s="110" t="n">
+        <v>28071.43</v>
+      </c>
+      <c r="P4" s="110" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Q4" s="110" t="n">
         <v>0</v>
-      </c>
-      <c r="O4" s="110" t="n">
-        <v>30</v>
-      </c>
-      <c r="P4" s="110" t="n">
-        <v>28071.43</v>
-      </c>
-      <c r="Q4" s="110" t="n">
-        <v>1500</v>
       </c>
       <c r="R4" s="110" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="110" t="n">
-        <v>0</v>
+        <v>29571.43</v>
       </c>
       <c r="T4" s="110" t="n">
-        <v>29571.43</v>
+        <v>34894.29</v>
       </c>
       <c r="U4" s="110" t="n">
-        <v>2661.43</v>
+        <v/>
       </c>
       <c r="V4" s="110" t="n">
         <v>2661.43</v>
       </c>
       <c r="W4" s="110" t="n">
-        <v>0</v>
+        <v>2661.43</v>
       </c>
       <c r="X4" s="110" t="n">
-        <v>34894.29</v>
-      </c>
-      <c r="Y4" s="110" t="n">
         <v/>
       </c>
     </row>
@@ -2302,80 +2281,75 @@
       </c>
       <c r="B5" s="110" t="inlineStr">
         <is>
-          <t>Titan Company Ltd</t>
+          <t>AB10085</t>
         </is>
       </c>
       <c r="C5" s="110" t="inlineStr">
         <is>
-          <t>AB10085</t>
-        </is>
-      </c>
-      <c r="D5" s="110" t="inlineStr">
-        <is>
           <t>AKASH DILIPKUMAR GUPTA</t>
         </is>
       </c>
+      <c r="D5" s="110" t="n">
+        <v>19200</v>
+      </c>
       <c r="E5" s="110" t="n">
-        <v>19200</v>
+        <v>28</v>
       </c>
       <c r="F5" s="110" t="n">
         <v>28</v>
       </c>
       <c r="G5" s="110" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H5" s="110" t="n">
         <v>4</v>
       </c>
       <c r="I5" s="110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="110" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="K5" s="110" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L5" s="110" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="M5" s="110" t="n">
         <v>1</v>
       </c>
       <c r="N5" s="110" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="O5" s="110" t="n">
-        <v>30</v>
+        <v>20571.43</v>
       </c>
       <c r="P5" s="110" t="n">
-        <v>20571.43</v>
+        <v>1500</v>
       </c>
       <c r="Q5" s="110" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="R5" s="110" t="n">
         <v>0</v>
       </c>
       <c r="S5" s="110" t="n">
-        <v>0</v>
+        <v>22071.43</v>
       </c>
       <c r="T5" s="110" t="n">
-        <v>22071.43</v>
+        <v>26044.29</v>
       </c>
       <c r="U5" s="110" t="n">
-        <v>1986.43</v>
+        <v/>
       </c>
       <c r="V5" s="110" t="n">
         <v>1986.43</v>
       </c>
       <c r="W5" s="110" t="n">
-        <v>0</v>
+        <v>1986.43</v>
       </c>
       <c r="X5" s="110" t="n">
-        <v>26044.29</v>
-      </c>
-      <c r="Y5" s="110" t="n">
         <v/>
       </c>
     </row>
@@ -2387,80 +2361,75 @@
       </c>
       <c r="B6" s="110" t="inlineStr">
         <is>
-          <t>Titan Company Ltd</t>
+          <t>AB10087</t>
         </is>
       </c>
       <c r="C6" s="110" t="inlineStr">
         <is>
-          <t>AB10087</t>
-        </is>
-      </c>
-      <c r="D6" s="110" t="inlineStr">
-        <is>
           <t>RIDDHI RAVINDRA NARKAR</t>
         </is>
       </c>
+      <c r="D6" s="110" t="n">
+        <v>31000</v>
+      </c>
       <c r="E6" s="110" t="n">
-        <v>31000</v>
+        <v>28</v>
       </c>
       <c r="F6" s="110" t="n">
         <v>28</v>
       </c>
       <c r="G6" s="110" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H6" s="110" t="n">
         <v>4</v>
       </c>
       <c r="I6" s="110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="110" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="K6" s="110" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="110" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M6" s="110" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="110" t="n">
+        <v>30</v>
+      </c>
+      <c r="O6" s="110" t="n">
+        <v>33214.29</v>
+      </c>
+      <c r="P6" s="110" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q6" s="110" t="n">
         <v>0</v>
-      </c>
-      <c r="O6" s="110" t="n">
-        <v>30</v>
-      </c>
-      <c r="P6" s="110" t="n">
-        <v>33214.29</v>
-      </c>
-      <c r="Q6" s="110" t="n">
-        <v>2000</v>
       </c>
       <c r="R6" s="110" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="110" t="n">
-        <v>0</v>
+        <v>35214.29</v>
       </c>
       <c r="T6" s="110" t="n">
-        <v>35214.29</v>
+        <v>41552.86</v>
       </c>
       <c r="U6" s="110" t="n">
-        <v>3169.29</v>
+        <v/>
       </c>
       <c r="V6" s="110" t="n">
         <v>3169.29</v>
       </c>
       <c r="W6" s="110" t="n">
-        <v>0</v>
+        <v>3169.29</v>
       </c>
       <c r="X6" s="110" t="n">
-        <v>41552.86</v>
-      </c>
-      <c r="Y6" s="110" t="n">
         <v/>
       </c>
     </row>
@@ -2472,80 +2441,75 @@
       </c>
       <c r="B7" s="110" t="inlineStr">
         <is>
-          <t>Titan Company Ltd</t>
+          <t>AB10088</t>
         </is>
       </c>
       <c r="C7" s="110" t="inlineStr">
         <is>
-          <t>AB10088</t>
-        </is>
-      </c>
-      <c r="D7" s="110" t="inlineStr">
-        <is>
           <t>VINAY YASWANT JOSHI</t>
         </is>
       </c>
+      <c r="D7" s="110" t="n">
+        <v>26600</v>
+      </c>
       <c r="E7" s="110" t="n">
-        <v>26600</v>
+        <v>28</v>
       </c>
       <c r="F7" s="110" t="n">
         <v>28</v>
       </c>
       <c r="G7" s="110" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H7" s="110" t="n">
         <v>4</v>
       </c>
       <c r="I7" s="110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="110" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="K7" s="110" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L7" s="110" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M7" s="110" t="n">
         <v>0</v>
       </c>
       <c r="N7" s="110" t="n">
+        <v>30</v>
+      </c>
+      <c r="O7" s="110" t="n">
+        <v>28500</v>
+      </c>
+      <c r="P7" s="110" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Q7" s="110" t="n">
         <v>0</v>
-      </c>
-      <c r="O7" s="110" t="n">
-        <v>30</v>
-      </c>
-      <c r="P7" s="110" t="n">
-        <v>28500</v>
-      </c>
-      <c r="Q7" s="110" t="n">
-        <v>1500</v>
       </c>
       <c r="R7" s="110" t="n">
         <v>0</v>
       </c>
       <c r="S7" s="110" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="T7" s="110" t="n">
-        <v>30000</v>
+        <v>35400</v>
       </c>
       <c r="U7" s="110" t="n">
-        <v>2700</v>
+        <v/>
       </c>
       <c r="V7" s="110" t="n">
         <v>2700</v>
       </c>
       <c r="W7" s="110" t="n">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="X7" s="110" t="n">
-        <v>35400</v>
-      </c>
-      <c r="Y7" s="110" t="n">
         <v/>
       </c>
     </row>
@@ -2557,7 +2521,10 @@
       </c>
       <c r="B8" s="111" t="n"/>
       <c r="C8" s="111" t="n"/>
-      <c r="D8" s="111" t="n"/>
+      <c r="D8" s="111">
+        <f>ROUND(SUM(D2:D7), 0)</f>
+        <v/>
+      </c>
       <c r="E8" s="111">
         <f>ROUND(SUM(E2:E7), 0)</f>
         <v/>
@@ -2619,26 +2586,22 @@
         <v/>
       </c>
       <c r="T8" s="111">
-        <f>ROUND(SUM(T2:T7), 0)</f>
-        <v/>
-      </c>
-      <c r="U8" s="111">
-        <f>CEILING(SUM(U2:U7), 1)</f>
-        <v/>
-      </c>
+        <f>ROUND(SUM(S8), 0)</f>
+        <v/>
+      </c>
+      <c r="U8" s="111" t="n"/>
       <c r="V8" s="111">
         <f>CEILING(SUM(V2:V7), 1)</f>
         <v/>
       </c>
       <c r="W8" s="111">
-        <f>ROUND(SUM(W2:W7), 0)</f>
+        <f>CEILING(SUM(W2:W7), 1)</f>
         <v/>
       </c>
       <c r="X8" s="111">
-        <f>ROUND(SUM(T8,U8,V8,W8), 0)</f>
-        <v/>
-      </c>
-      <c r="Y8" s="111" t="n"/>
+        <f>ROUND(SUM(X2:X7), 0)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Bills/Sagar_Thumma_Jobuss.xlsx
+++ b/Bills/Sagar_Thumma_Jobuss.xlsx
@@ -439,7 +439,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -709,7 +709,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1550,7 +1554,7 @@
       <c r="F21" s="13" t="n"/>
       <c r="G21" s="14" t="n"/>
       <c r="H21" s="102" t="n">
-        <v>14959</v>
+        <v>14960</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" thickBot="1">
@@ -1566,13 +1570,13 @@
       <c r="F22" s="13" t="n"/>
       <c r="G22" s="14" t="n"/>
       <c r="H22" s="102" t="n">
-        <v>14959</v>
+        <v>14960</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" s="18" t="n"/>
       <c r="H23" s="102" t="n">
-        <v>196133</v>
+        <v>196134</v>
       </c>
     </row>
     <row r="24" ht="16.5" customHeight="1">
@@ -1583,7 +1587,7 @@
       </c>
       <c r="B24" s="20" t="inlineStr">
         <is>
-          <t>One Lakh, Ninety-Six Thousand, One Hundred And Thirty-Three Only</t>
+          <t>One Lakh, Ninety-Six Thousand, One Hundred And Thirty-Four Only</t>
         </is>
       </c>
       <c r="H24" s="103" t="n"/>
@@ -1877,7 +1881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1908,7 +1912,6 @@
     <col width="18" customWidth="1" min="21" max="21"/>
     <col width="18" customWidth="1" min="22" max="22"/>
     <col width="18" customWidth="1" min="23" max="23"/>
-    <col width="18" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -2009,27 +2012,22 @@
       </c>
       <c r="T1" s="109" t="inlineStr">
         <is>
+          <t>CGST @9%</t>
+        </is>
+      </c>
+      <c r="U1" s="109" t="inlineStr">
+        <is>
+          <t>SGST @9%</t>
+        </is>
+      </c>
+      <c r="V1" s="109" t="inlineStr">
+        <is>
           <t>Grand Total</t>
         </is>
       </c>
-      <c r="U1" s="109" t="inlineStr">
+      <c r="W1" s="109" t="inlineStr">
         <is>
           <t>Remark</t>
-        </is>
-      </c>
-      <c r="V1" s="109" t="inlineStr">
-        <is>
-          <t>CGST @9%</t>
-        </is>
-      </c>
-      <c r="W1" s="109" t="inlineStr">
-        <is>
-          <t>SGST @9%</t>
-        </is>
-      </c>
-      <c r="X1" s="109" t="inlineStr">
-        <is>
-          <t>IGST @18%</t>
         </is>
       </c>
     </row>
@@ -2049,67 +2047,64 @@
           <t>VISMAYA SURESH NAIR</t>
         </is>
       </c>
-      <c r="D2" s="110" t="n">
+      <c r="D2" s="111" t="n">
         <v>22000</v>
       </c>
-      <c r="E2" s="110" t="n">
+      <c r="E2" s="111" t="n">
         <v>28</v>
       </c>
-      <c r="F2" s="110" t="n">
+      <c r="F2" s="111" t="n">
         <v>28</v>
       </c>
-      <c r="G2" s="110" t="n">
+      <c r="G2" s="111" t="n">
         <v>4</v>
       </c>
-      <c r="H2" s="110" t="n">
+      <c r="H2" s="111" t="n">
         <v>4</v>
       </c>
-      <c r="I2" s="110" t="n">
+      <c r="I2" s="111" t="n">
         <v>3</v>
       </c>
-      <c r="J2" s="110" t="n">
+      <c r="J2" s="111" t="n">
         <v>17</v>
       </c>
-      <c r="K2" s="110" t="n">
+      <c r="K2" s="111" t="n">
         <v>28</v>
       </c>
-      <c r="L2" s="110" t="n">
+      <c r="L2" s="111" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="110" t="n">
+      <c r="M2" s="111" t="n">
         <v>2</v>
       </c>
-      <c r="N2" s="110" t="n">
+      <c r="N2" s="111" t="n">
         <v>30</v>
       </c>
-      <c r="O2" s="110" t="n">
+      <c r="O2" s="111" t="n">
         <v>23571.43</v>
       </c>
-      <c r="P2" s="110" t="n">
+      <c r="P2" s="111" t="n">
         <v>1500</v>
       </c>
-      <c r="Q2" s="110" t="n">
+      <c r="Q2" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="110" t="n">
+      <c r="R2" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="110" t="n">
+      <c r="S2" s="111" t="n">
         <v>25071.43</v>
       </c>
-      <c r="T2" s="110" t="n">
+      <c r="T2" s="111" t="n">
+        <v>2256.43</v>
+      </c>
+      <c r="U2" s="111" t="n">
+        <v>2256.43</v>
+      </c>
+      <c r="V2" s="111" t="n">
         <v>29584.29</v>
       </c>
-      <c r="U2" s="110" t="n">
-        <v/>
-      </c>
-      <c r="V2" s="110" t="n">
-        <v>2256.43</v>
-      </c>
       <c r="W2" s="110" t="n">
-        <v>2256.43</v>
-      </c>
-      <c r="X2" s="110" t="n">
         <v/>
       </c>
     </row>
@@ -2129,67 +2124,64 @@
           <t>RENUKA SHRIVASTAV</t>
         </is>
       </c>
-      <c r="D3" s="110" t="n">
+      <c r="D3" s="111" t="n">
         <v>22000</v>
       </c>
-      <c r="E3" s="110" t="n">
+      <c r="E3" s="111" t="n">
         <v>28</v>
       </c>
-      <c r="F3" s="110" t="n">
+      <c r="F3" s="111" t="n">
         <v>28</v>
       </c>
-      <c r="G3" s="110" t="n">
+      <c r="G3" s="111" t="n">
         <v>4</v>
       </c>
-      <c r="H3" s="110" t="n">
+      <c r="H3" s="111" t="n">
         <v>4</v>
       </c>
-      <c r="I3" s="110" t="n">
+      <c r="I3" s="111" t="n">
         <v>3</v>
       </c>
-      <c r="J3" s="110" t="n">
+      <c r="J3" s="111" t="n">
         <v>16</v>
       </c>
-      <c r="K3" s="110" t="n">
+      <c r="K3" s="111" t="n">
         <v>27</v>
       </c>
-      <c r="L3" s="110" t="n">
+      <c r="L3" s="111" t="n">
         <v>3</v>
       </c>
-      <c r="M3" s="110" t="n">
+      <c r="M3" s="111" t="n">
         <v>2</v>
       </c>
-      <c r="N3" s="110" t="n">
+      <c r="N3" s="111" t="n">
         <v>29</v>
       </c>
-      <c r="O3" s="110" t="n">
+      <c r="O3" s="111" t="n">
         <v>22785.71</v>
       </c>
-      <c r="P3" s="110" t="n">
+      <c r="P3" s="111" t="n">
         <v>1500</v>
       </c>
-      <c r="Q3" s="110" t="n">
+      <c r="Q3" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="110" t="n">
+      <c r="R3" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="110" t="n">
+      <c r="S3" s="111" t="n">
         <v>24285.71</v>
       </c>
-      <c r="T3" s="110" t="n">
+      <c r="T3" s="111" t="n">
+        <v>2185.71</v>
+      </c>
+      <c r="U3" s="111" t="n">
+        <v>2185.71</v>
+      </c>
+      <c r="V3" s="111" t="n">
         <v>28657.14</v>
       </c>
-      <c r="U3" s="110" t="n">
-        <v/>
-      </c>
-      <c r="V3" s="110" t="n">
-        <v>2185.71</v>
-      </c>
       <c r="W3" s="110" t="n">
-        <v>2185.71</v>
-      </c>
-      <c r="X3" s="110" t="n">
         <v/>
       </c>
     </row>
@@ -2209,67 +2201,64 @@
           <t>NIKITA TAMBE</t>
         </is>
       </c>
-      <c r="D4" s="110" t="n">
+      <c r="D4" s="111" t="n">
         <v>26200</v>
       </c>
-      <c r="E4" s="110" t="n">
+      <c r="E4" s="111" t="n">
         <v>28</v>
       </c>
-      <c r="F4" s="110" t="n">
+      <c r="F4" s="111" t="n">
         <v>28</v>
       </c>
-      <c r="G4" s="110" t="n">
+      <c r="G4" s="111" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="110" t="n">
+      <c r="H4" s="111" t="n">
         <v>4</v>
       </c>
-      <c r="I4" s="110" t="n">
+      <c r="I4" s="111" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="110" t="n">
+      <c r="J4" s="111" t="n">
         <v>19</v>
       </c>
-      <c r="K4" s="110" t="n">
+      <c r="K4" s="111" t="n">
         <v>30</v>
       </c>
-      <c r="L4" s="110" t="n">
+      <c r="L4" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="M4" s="110" t="n">
+      <c r="M4" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="N4" s="110" t="n">
+      <c r="N4" s="111" t="n">
         <v>30</v>
       </c>
-      <c r="O4" s="110" t="n">
+      <c r="O4" s="111" t="n">
         <v>28071.43</v>
       </c>
-      <c r="P4" s="110" t="n">
+      <c r="P4" s="111" t="n">
         <v>1500</v>
       </c>
-      <c r="Q4" s="110" t="n">
+      <c r="Q4" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="R4" s="110" t="n">
+      <c r="R4" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="S4" s="110" t="n">
+      <c r="S4" s="111" t="n">
         <v>29571.43</v>
       </c>
-      <c r="T4" s="110" t="n">
+      <c r="T4" s="111" t="n">
+        <v>2661.43</v>
+      </c>
+      <c r="U4" s="111" t="n">
+        <v>2661.43</v>
+      </c>
+      <c r="V4" s="111" t="n">
         <v>34894.29</v>
       </c>
-      <c r="U4" s="110" t="n">
-        <v/>
-      </c>
-      <c r="V4" s="110" t="n">
-        <v>2661.43</v>
-      </c>
       <c r="W4" s="110" t="n">
-        <v>2661.43</v>
-      </c>
-      <c r="X4" s="110" t="n">
         <v/>
       </c>
     </row>
@@ -2289,67 +2278,64 @@
           <t>AKASH DILIPKUMAR GUPTA</t>
         </is>
       </c>
-      <c r="D5" s="110" t="n">
+      <c r="D5" s="111" t="n">
         <v>19200</v>
       </c>
-      <c r="E5" s="110" t="n">
+      <c r="E5" s="111" t="n">
         <v>28</v>
       </c>
-      <c r="F5" s="110" t="n">
+      <c r="F5" s="111" t="n">
         <v>28</v>
       </c>
-      <c r="G5" s="110" t="n">
+      <c r="G5" s="111" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="110" t="n">
+      <c r="H5" s="111" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="110" t="n">
+      <c r="I5" s="111" t="n">
         <v>3</v>
       </c>
-      <c r="J5" s="110" t="n">
+      <c r="J5" s="111" t="n">
         <v>18</v>
       </c>
-      <c r="K5" s="110" t="n">
+      <c r="K5" s="111" t="n">
         <v>29</v>
       </c>
-      <c r="L5" s="110" t="n">
+      <c r="L5" s="111" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="110" t="n">
+      <c r="M5" s="111" t="n">
         <v>1</v>
       </c>
-      <c r="N5" s="110" t="n">
+      <c r="N5" s="111" t="n">
         <v>30</v>
       </c>
-      <c r="O5" s="110" t="n">
+      <c r="O5" s="111" t="n">
         <v>20571.43</v>
       </c>
-      <c r="P5" s="110" t="n">
+      <c r="P5" s="111" t="n">
         <v>1500</v>
       </c>
-      <c r="Q5" s="110" t="n">
+      <c r="Q5" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="R5" s="110" t="n">
+      <c r="R5" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="S5" s="110" t="n">
+      <c r="S5" s="111" t="n">
         <v>22071.43</v>
       </c>
-      <c r="T5" s="110" t="n">
+      <c r="T5" s="111" t="n">
+        <v>1986.43</v>
+      </c>
+      <c r="U5" s="111" t="n">
+        <v>1986.43</v>
+      </c>
+      <c r="V5" s="111" t="n">
         <v>26044.29</v>
       </c>
-      <c r="U5" s="110" t="n">
-        <v/>
-      </c>
-      <c r="V5" s="110" t="n">
-        <v>1986.43</v>
-      </c>
       <c r="W5" s="110" t="n">
-        <v>1986.43</v>
-      </c>
-      <c r="X5" s="110" t="n">
         <v/>
       </c>
     </row>
@@ -2369,67 +2355,64 @@
           <t>RIDDHI RAVINDRA NARKAR</t>
         </is>
       </c>
-      <c r="D6" s="110" t="n">
+      <c r="D6" s="111" t="n">
         <v>31000</v>
       </c>
-      <c r="E6" s="110" t="n">
+      <c r="E6" s="111" t="n">
         <v>28</v>
       </c>
-      <c r="F6" s="110" t="n">
+      <c r="F6" s="111" t="n">
         <v>28</v>
       </c>
-      <c r="G6" s="110" t="n">
+      <c r="G6" s="111" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="110" t="n">
+      <c r="H6" s="111" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="110" t="n">
+      <c r="I6" s="111" t="n">
         <v>3</v>
       </c>
-      <c r="J6" s="110" t="n">
+      <c r="J6" s="111" t="n">
         <v>19</v>
       </c>
-      <c r="K6" s="110" t="n">
+      <c r="K6" s="111" t="n">
         <v>30</v>
       </c>
-      <c r="L6" s="110" t="n">
+      <c r="L6" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="110" t="n">
+      <c r="M6" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="110" t="n">
+      <c r="N6" s="111" t="n">
         <v>30</v>
       </c>
-      <c r="O6" s="110" t="n">
+      <c r="O6" s="111" t="n">
         <v>33214.29</v>
       </c>
-      <c r="P6" s="110" t="n">
+      <c r="P6" s="111" t="n">
         <v>2000</v>
       </c>
-      <c r="Q6" s="110" t="n">
+      <c r="Q6" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="110" t="n">
+      <c r="R6" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="S6" s="110" t="n">
+      <c r="S6" s="111" t="n">
         <v>35214.29</v>
       </c>
-      <c r="T6" s="110" t="n">
+      <c r="T6" s="111" t="n">
+        <v>3169.29</v>
+      </c>
+      <c r="U6" s="111" t="n">
+        <v>3169.29</v>
+      </c>
+      <c r="V6" s="111" t="n">
         <v>41552.86</v>
       </c>
-      <c r="U6" s="110" t="n">
-        <v/>
-      </c>
-      <c r="V6" s="110" t="n">
-        <v>3169.29</v>
-      </c>
       <c r="W6" s="110" t="n">
-        <v>3169.29</v>
-      </c>
-      <c r="X6" s="110" t="n">
         <v/>
       </c>
     </row>
@@ -2449,159 +2432,152 @@
           <t>VINAY YASWANT JOSHI</t>
         </is>
       </c>
-      <c r="D7" s="110" t="n">
+      <c r="D7" s="111" t="n">
         <v>26600</v>
       </c>
-      <c r="E7" s="110" t="n">
+      <c r="E7" s="111" t="n">
         <v>28</v>
       </c>
-      <c r="F7" s="110" t="n">
+      <c r="F7" s="111" t="n">
         <v>28</v>
       </c>
-      <c r="G7" s="110" t="n">
+      <c r="G7" s="111" t="n">
         <v>4</v>
       </c>
-      <c r="H7" s="110" t="n">
+      <c r="H7" s="111" t="n">
         <v>4</v>
       </c>
-      <c r="I7" s="110" t="n">
+      <c r="I7" s="111" t="n">
         <v>3</v>
       </c>
-      <c r="J7" s="110" t="n">
+      <c r="J7" s="111" t="n">
         <v>19</v>
       </c>
-      <c r="K7" s="110" t="n">
+      <c r="K7" s="111" t="n">
         <v>30</v>
       </c>
-      <c r="L7" s="110" t="n">
+      <c r="L7" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="110" t="n">
+      <c r="M7" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="110" t="n">
+      <c r="N7" s="111" t="n">
         <v>30</v>
       </c>
-      <c r="O7" s="110" t="n">
+      <c r="O7" s="111" t="n">
         <v>28500</v>
       </c>
-      <c r="P7" s="110" t="n">
+      <c r="P7" s="111" t="n">
         <v>1500</v>
       </c>
-      <c r="Q7" s="110" t="n">
+      <c r="Q7" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="110" t="n">
+      <c r="R7" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="S7" s="110" t="n">
+      <c r="S7" s="111" t="n">
         <v>30000</v>
       </c>
-      <c r="T7" s="110" t="n">
+      <c r="T7" s="111" t="n">
+        <v>2700</v>
+      </c>
+      <c r="U7" s="111" t="n">
+        <v>2700</v>
+      </c>
+      <c r="V7" s="111" t="n">
         <v>35400</v>
       </c>
-      <c r="U7" s="110" t="n">
+      <c r="W7" s="110" t="n">
         <v/>
       </c>
-      <c r="V7" s="110" t="n">
-        <v>2700</v>
-      </c>
-      <c r="W7" s="110" t="n">
-        <v>2700</v>
-      </c>
-      <c r="X7" s="110" t="n">
-        <v/>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="111" t="inlineStr">
+      <c r="A8" s="112" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B8" s="111" t="n"/>
-      <c r="C8" s="111" t="n"/>
-      <c r="D8" s="111">
+      <c r="B8" s="112" t="n"/>
+      <c r="C8" s="112" t="n"/>
+      <c r="D8" s="113">
         <f>ROUND(SUM(D2:D7), 0)</f>
         <v/>
       </c>
-      <c r="E8" s="111">
+      <c r="E8" s="113">
         <f>ROUND(SUM(E2:E7), 0)</f>
         <v/>
       </c>
-      <c r="F8" s="111">
+      <c r="F8" s="113">
         <f>ROUND(SUM(F2:F7), 0)</f>
         <v/>
       </c>
-      <c r="G8" s="111">
+      <c r="G8" s="113">
         <f>ROUND(SUM(G2:G7), 0)</f>
         <v/>
       </c>
-      <c r="H8" s="111">
+      <c r="H8" s="113">
         <f>ROUND(SUM(H2:H7), 0)</f>
         <v/>
       </c>
-      <c r="I8" s="111">
+      <c r="I8" s="113">
         <f>ROUND(SUM(I2:I7), 0)</f>
         <v/>
       </c>
-      <c r="J8" s="111">
+      <c r="J8" s="113">
         <f>ROUND(SUM(J2:J7), 0)</f>
         <v/>
       </c>
-      <c r="K8" s="111">
+      <c r="K8" s="113">
         <f>ROUND(SUM(K2:K7), 0)</f>
         <v/>
       </c>
-      <c r="L8" s="111">
+      <c r="L8" s="113">
         <f>ROUND(SUM(L2:L7), 0)</f>
         <v/>
       </c>
-      <c r="M8" s="111">
+      <c r="M8" s="113">
         <f>ROUND(SUM(M2:M7), 0)</f>
         <v/>
       </c>
-      <c r="N8" s="111">
+      <c r="N8" s="113">
         <f>ROUND(SUM(N2:N7), 0)</f>
         <v/>
       </c>
-      <c r="O8" s="111">
+      <c r="O8" s="113">
         <f>ROUND(SUM(O2:O7), 0)</f>
         <v/>
       </c>
-      <c r="P8" s="111">
+      <c r="P8" s="113">
         <f>ROUND(SUM(P2:P7), 0)</f>
         <v/>
       </c>
-      <c r="Q8" s="111">
+      <c r="Q8" s="113">
         <f>ROUND(SUM(Q2:Q7), 0)</f>
         <v/>
       </c>
-      <c r="R8" s="111">
+      <c r="R8" s="113">
         <f>ROUND(SUM(R2:R7), 0)</f>
         <v/>
       </c>
-      <c r="S8" s="111">
+      <c r="S8" s="113">
         <f>ROUND(SUM(S2:S7), 0)</f>
         <v/>
       </c>
-      <c r="T8" s="111">
-        <f>ROUND(SUM(S8), 0)</f>
+      <c r="T8" s="113">
+        <f>CEILING(SUM(T2:T7), 1)</f>
         <v/>
       </c>
-      <c r="U8" s="111" t="n"/>
-      <c r="V8" s="111">
-        <f>CEILING(SUM(V2:V7), 1)</f>
+      <c r="U8" s="113">
+        <f>CEILING(SUM(U2:U7), 1)</f>
         <v/>
       </c>
-      <c r="W8" s="111">
-        <f>CEILING(SUM(W2:W7), 1)</f>
+      <c r="V8" s="113">
+        <f>ROUND(SUM(S8,T8,U8), 0)</f>
         <v/>
       </c>
-      <c r="X8" s="111">
-        <f>ROUND(SUM(X2:X7), 0)</f>
-        <v/>
-      </c>
+      <c r="W8" s="112" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
